--- a/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
@@ -61,487 +61,472 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Woźniak</t>
+    <t>Aleksander Mazur</t>
+  </si>
+  <si>
+    <t>Filip Jankowski</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Antoni Kowalczyk</t>
+  </si>
+  <si>
+    <t>Filip Wojciechowski</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>8,20</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>24,00</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,70</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>30,97</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>12,66</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>25,20</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>23,09</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>17,85</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>1,63</t>
+  </si>
+  <si>
+    <t>28,67</t>
+  </si>
+  <si>
+    <t>18,10</t>
+  </si>
+  <si>
+    <t>18,87</t>
+  </si>
+  <si>
+    <t>23,62</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>14,11</t>
+  </si>
+  <si>
+    <t>19,14</t>
+  </si>
+  <si>
+    <t>28,42</t>
+  </si>
+  <si>
+    <t>8,69</t>
+  </si>
+  <si>
+    <t>23,36</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>14.08.1975</t>
+  </si>
+  <si>
+    <t>10 844,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>14.09.1993</t>
+  </si>
+  <si>
+    <t>12 971,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>16.10.1995</t>
+  </si>
+  <si>
+    <t>6 455,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>03.08.2005</t>
+  </si>
+  <si>
+    <t>9 385,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Olszewska</t>
+  </si>
+  <si>
+    <t>07.09.1985</t>
+  </si>
+  <si>
+    <t>6 066,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>01.05.2000</t>
+  </si>
+  <si>
+    <t>11 159,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kwiatkowski</t>
+  </si>
+  <si>
+    <t>10.07.1998</t>
+  </si>
+  <si>
+    <t>2 521,00 zł</t>
   </si>
   <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
-    <t>Oliwia Sikorska</t>
-  </si>
-  <si>
-    <t>Adam Lewandowski</t>
-  </si>
-  <si>
-    <t>Oliwia Maciejewska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>3,90</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>5,80</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,40</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,60</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>17,01</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>28,07</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>24,36</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>25,86</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>11,58</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>6,31</t>
-  </si>
-  <si>
-    <t>6,10</t>
-  </si>
-  <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>27,67</t>
-  </si>
-  <si>
-    <t>27,83</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>24,04</t>
-  </si>
-  <si>
-    <t>20,05</t>
-  </si>
-  <si>
-    <t>2,24</t>
-  </si>
-  <si>
-    <t>3,17</t>
-  </si>
-  <si>
-    <t>23,17</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Antoni Woźniak</t>
-  </si>
-  <si>
-    <t>05.06.2005</t>
-  </si>
-  <si>
-    <t>6 246,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>02.02.1978</t>
-  </si>
-  <si>
-    <t>3 658,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>22.04.1977</t>
-  </si>
-  <si>
-    <t>14 745,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Wojciechowski</t>
-  </si>
-  <si>
-    <t>07.09.1991</t>
-  </si>
-  <si>
-    <t>14 989,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>20.04.1984</t>
-  </si>
-  <si>
-    <t>11 107,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Malinowska</t>
-  </si>
-  <si>
-    <t>14.05.2002</t>
-  </si>
-  <si>
-    <t>3 792,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Zieliński</t>
-  </si>
-  <si>
-    <t>24.09.1989</t>
-  </si>
-  <si>
-    <t>13 148,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kwiatkowski</t>
-  </si>
-  <si>
-    <t>06.01.2001</t>
-  </si>
-  <si>
-    <t>2 964,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>18.07.1983</t>
-  </si>
-  <si>
-    <t>3 482,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>20.06.2001</t>
-  </si>
-  <si>
-    <t>3 229,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>09.07.1988</t>
-  </si>
-  <si>
-    <t>3 145,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>20.04.1999</t>
-  </si>
-  <si>
-    <t>12 362,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>20.11.1998</t>
-  </si>
-  <si>
-    <t>6 186,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>18.12.1984</t>
-  </si>
-  <si>
-    <t>10 865,00 zł</t>
+    <t>27.08.2002</t>
+  </si>
+  <si>
+    <t>14 041,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
+  </si>
+  <si>
+    <t>02.08.1976</t>
+  </si>
+  <si>
+    <t>2 855,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>23.08.1998</t>
+  </si>
+  <si>
+    <t>8 550,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>25.06.1989</t>
+  </si>
+  <si>
+    <t>2 606,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>06.03.1981</t>
+  </si>
+  <si>
+    <t>3 664,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>14.04.1980</t>
+  </si>
+  <si>
+    <t>10 009,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -613,289 +598,304 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>1 597,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 437,00 zł</t>
+  </si>
+  <si>
+    <t>1 782,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 046,00 zł</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 489,00 zł</t>
+  </si>
+  <si>
+    <t>1 906,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 132,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>536,00 zł</t>
+  </si>
+  <si>
+    <t>718,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>790,00 zł</t>
+  </si>
+  <si>
+    <t>995,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 075,00 zł</t>
+  </si>
+  <si>
+    <t>1 290,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 163,00 zł</t>
+  </si>
+  <si>
+    <t>1 361,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>992,00 zł</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 159,00 zł</t>
+  </si>
+  <si>
+    <t>1 310,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>1 319,00 zł</t>
+  </si>
+  <si>
+    <t>1 807,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>747,00 zł</t>
+  </si>
+  <si>
+    <t>934,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 381,00 zł</t>
+  </si>
+  <si>
+    <t>1 878,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>741,00 zł</t>
+  </si>
+  <si>
+    <t>889,00 zł</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 160,00 zł</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>1 376,00 zł</t>
+  </si>
+  <si>
+    <t>1 582,00 zł</t>
+  </si>
+  <si>
+    <t>1 002,00 zł</t>
+  </si>
+  <si>
+    <t>1 152,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>924,00 zł</t>
+  </si>
+  <si>
+    <t>1 100,00 zł</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 267,00 zł</t>
+  </si>
+  <si>
+    <t>1 634,00 zł</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>636,00 zł</t>
+  </si>
+  <si>
+    <t>712,00 zł</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>616,00 zł</t>
+  </si>
+  <si>
+    <t>776,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 014,00 zł</t>
+  </si>
+  <si>
+    <t>1 257,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 322,00 zł</t>
+  </si>
+  <si>
+    <t>1 454,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>1 009,00 zł</t>
+  </si>
+  <si>
+    <t>1 392,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>748,00 zł</t>
+  </si>
+  <si>
+    <t>838,00 zł</t>
+  </si>
+  <si>
+    <t>1 102,00 zł</t>
+  </si>
+  <si>
+    <t>1 444,00 zł</t>
+  </si>
+  <si>
+    <t>1 380,00 zł</t>
+  </si>
+  <si>
+    <t>1 739,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>1 871,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 793,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 581,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 683,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 109,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 040,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 198,00 zł</t>
-  </si>
-  <si>
-    <t>1 545,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>1 888,00 zł</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 960,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
-    <t>990,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 553,00 zł</t>
-  </si>
-  <si>
-    <t>901,00 zł</t>
-  </si>
-  <si>
-    <t>1 135,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 848,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>630,00 zł</t>
-  </si>
-  <si>
-    <t>725,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 029,00 zł</t>
-  </si>
-  <si>
-    <t>1 348,00 zł</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 763,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>770,00 zł</t>
-  </si>
-  <si>
-    <t>970,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 400,00 zł</t>
-  </si>
-  <si>
-    <t>1 151,00 zł</t>
-  </si>
-  <si>
-    <t>1 324,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1452,19 +1452,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1476,16 +1476,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1494,19 +1494,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1515,19 +1515,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1539,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1557,16 +1557,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
@@ -1578,19 +1578,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1599,10 +1599,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -1611,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1620,19 +1620,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1641,19 +1641,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1668,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1683,19 +1683,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1817,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1832,7 +1832,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1877,7 +1877,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2009,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2021,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2033,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2045,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2105,7 +2105,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2117,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2129,7 +2129,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2141,7 +2141,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2201,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2213,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2225,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2237,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2249,7 +2249,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2283,10 +2283,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2392,25 +2392,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
-      </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2424,25 +2424,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2456,13 +2456,13 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2491,22 +2491,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2514,31 +2514,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>6</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2546,31 +2546,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2587,61 +2587,45 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2655,27 +2639,11 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,10 +2656,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2703,7 +2671,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2713,221 +2681,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2945,10 +2902,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2964,7 +2921,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2974,75 +2931,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3050,22 +3007,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3073,22 +3030,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3096,22 +3053,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3119,22 +3076,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3142,22 +3099,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3165,22 +3122,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3188,22 +3145,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3211,22 +3168,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3234,22 +3191,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3257,22 +3214,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3280,22 +3237,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3303,22 +3260,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3326,22 +3283,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3349,22 +3306,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3372,22 +3329,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3395,22 +3352,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3418,22 +3375,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3441,22 +3398,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3464,22 +3421,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3487,22 +3444,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3510,22 +3467,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3533,22 +3490,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3556,22 +3513,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3579,22 +3536,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3602,10 +3559,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>285</v>
@@ -3614,10 +3571,10 @@
         <v>286</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3625,67 +3582,90 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>174</v>
+      <c r="G42" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>178</v>
+      <c r="A45" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>296</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>178</v>
+      <c r="B50" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,70</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>8,20</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,80</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>24,00</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,70</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>30,97</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>12,66</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>25,20</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>23,09</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,85</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>1,63</t>
-  </si>
-  <si>
-    <t>28,67</t>
-  </si>
-  <si>
-    <t>18,10</t>
-  </si>
-  <si>
-    <t>18,87</t>
-  </si>
-  <si>
-    <t>23,62</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>14,11</t>
-  </si>
-  <si>
-    <t>19,14</t>
-  </si>
-  <si>
-    <t>28,42</t>
-  </si>
-  <si>
-    <t>8,69</t>
-  </si>
-  <si>
-    <t>23,36</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,117 +340,78 @@
     <t>14.08.1975</t>
   </si>
   <si>
-    <t>10 844,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Woźniak</t>
   </si>
   <si>
     <t>14.09.1993</t>
   </si>
   <si>
-    <t>12 971,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Nowak</t>
   </si>
   <si>
     <t>16.10.1995</t>
   </si>
   <si>
-    <t>6 455,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Sikorska</t>
   </si>
   <si>
     <t>03.08.2005</t>
   </si>
   <si>
-    <t>9 385,00 zł</t>
-  </si>
-  <si>
     <t>Julia Olszewska</t>
   </si>
   <si>
     <t>07.09.1985</t>
   </si>
   <si>
-    <t>6 066,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Borkowska</t>
   </si>
   <si>
     <t>01.05.2000</t>
   </si>
   <si>
-    <t>11 159,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kwiatkowski</t>
   </si>
   <si>
     <t>10.07.1998</t>
   </si>
   <si>
-    <t>2 521,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
     <t>27.08.2002</t>
   </si>
   <si>
-    <t>14 041,00 zł</t>
-  </si>
-  <si>
     <t>Julia Piekarska</t>
   </si>
   <si>
     <t>02.08.1976</t>
   </si>
   <si>
-    <t>2 855,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Piekarska</t>
   </si>
   <si>
     <t>23.08.1998</t>
   </si>
   <si>
-    <t>8 550,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Bednarska</t>
   </si>
   <si>
     <t>25.06.1989</t>
   </si>
   <si>
-    <t>2 606,00 zł</t>
-  </si>
-  <si>
     <t>Lena Kubiak</t>
   </si>
   <si>
     <t>06.03.1981</t>
   </si>
   <si>
-    <t>3 664,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Górska</t>
   </si>
   <si>
     <t>14.04.1980</t>
   </si>
   <si>
-    <t>10 009,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +424,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +484,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>1 782,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -622,12 +496,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 046,00 zł</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -640,12 +508,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>1 906,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -658,69 +520,33 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>536,00 zł</t>
-  </si>
-  <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>790,00 zł</t>
-  </si>
-  <si>
-    <t>995,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
-    <t>1 290,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 163,00 zł</t>
-  </si>
-  <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>992,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
@@ -730,114 +556,42 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>1 807,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>747,00 zł</t>
-  </si>
-  <si>
-    <t>934,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 878,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>741,00 zł</t>
-  </si>
-  <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 160,00 zł</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
-    <t>1 582,00 zł</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>924,00 zł</t>
-  </si>
-  <si>
-    <t>1 100,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
-    <t>1 634,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>636,00 zł</t>
-  </si>
-  <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>616,00 zł</t>
-  </si>
-  <si>
-    <t>776,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -847,52 +601,16 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 014,00 zł</t>
-  </si>
-  <si>
-    <t>1 257,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 322,00 zł</t>
-  </si>
-  <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>748,00 zł</t>
-  </si>
-  <si>
-    <t>838,00 zł</t>
-  </si>
-  <si>
-    <t>1 102,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 739,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
@@ -917,7 +635,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -974,14 +694,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -992,8 +712,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,30 +744,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1071,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,25 +1146,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,7 +1187,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1487,7 +1208,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1508,7 +1229,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1529,7 +1250,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1550,7 +1271,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1571,7 +1292,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1592,7 +1313,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1613,7 +1334,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1634,7 +1355,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1655,7 +1376,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1676,7 +1397,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1697,27 +1418,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1751,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,7 +1482,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1781,29 +1492,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1811,99 +1522,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.7</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8.2</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.8</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.7</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1936,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,113 +1672,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>30.97</v>
       </c>
       <c r="C15" s="3">
         <v>39</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12.66</v>
       </c>
       <c r="C16" s="3">
         <v>35</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>25.2</v>
       </c>
       <c r="C17" s="3">
         <v>29</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>23.09</v>
       </c>
       <c r="C18" s="3">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17.85</v>
       </c>
       <c r="C19" s="3">
         <v>36</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2076,94 +1787,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.63</v>
       </c>
       <c r="C24" s="3">
         <v>38</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>28.67</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18.1</v>
       </c>
       <c r="C26" s="3">
         <v>34</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>18.87</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>23.62</v>
       </c>
       <c r="C28" s="3">
         <v>23</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2172,98 +1883,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>14.11</v>
       </c>
       <c r="C33" s="3">
         <v>46</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>19.14</v>
       </c>
       <c r="C34" s="3">
         <v>36</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>28.42</v>
       </c>
       <c r="C35" s="3">
         <v>23</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>8.69</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>23.36</v>
       </c>
       <c r="C37" s="3">
         <v>18</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2286,7 +1997,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,90 +2017,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2412,16 +2123,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2444,16 +2155,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2476,16 +2187,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2508,16 +2219,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2540,16 +2251,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2572,16 +2283,16 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2604,40 +2315,40 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2670,222 +2381,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10844</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12971</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6455</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9385</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6066</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2521</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14041</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2855</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8550</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2606</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3664</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10009</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>169</v>
+      <c r="A26" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2920,86 +2625,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3007,22 +2712,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1437</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1782</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3030,22 +2735,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1046</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1370</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3053,22 +2758,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1489</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1906</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3076,22 +2781,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1132</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1404</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3099,22 +2804,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>165</v>
+      </c>
+      <c r="D20" s="7">
+        <v>536</v>
+      </c>
+      <c r="E20" s="7">
+        <v>718</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3122,22 +2827,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>790</v>
+      </c>
+      <c r="E21" s="7">
+        <v>995</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3145,22 +2850,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>157</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1075</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1290</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3168,22 +2873,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>169</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1163</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1361</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3191,22 +2896,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>169</v>
+      </c>
+      <c r="D24" s="7">
+        <v>992</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1379</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3214,22 +2919,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1159</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1310</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3237,22 +2942,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>169</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1319</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1807</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3260,22 +2965,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>165</v>
+      </c>
+      <c r="D27" s="7">
+        <v>747</v>
+      </c>
+      <c r="E27" s="7">
+        <v>934</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3283,22 +2988,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1381</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1878</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3306,22 +3011,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>741</v>
+      </c>
+      <c r="E29" s="7">
+        <v>889</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3329,22 +3034,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1438</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3352,22 +3057,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>153</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1376</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1582</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3375,22 +3080,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>258</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1002</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1152</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3398,22 +3103,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>186</v>
+      </c>
+      <c r="D33" s="7">
+        <v>924</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3421,22 +3126,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>187</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1267</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1634</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3444,22 +3149,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
+      </c>
+      <c r="D35" s="7">
+        <v>636</v>
+      </c>
+      <c r="E35" s="7">
+        <v>712</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3467,22 +3172,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>184</v>
+      </c>
+      <c r="D36" s="7">
+        <v>616</v>
+      </c>
+      <c r="E36" s="7">
+        <v>776</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3490,22 +3195,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>192</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1014</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1257</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3513,22 +3218,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>279</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1322</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1454</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3536,22 +3241,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>186</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1009</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1392</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3559,22 +3264,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>196</v>
+      </c>
+      <c r="D40" s="7">
+        <v>748</v>
+      </c>
+      <c r="E40" s="7">
+        <v>838</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3582,22 +3287,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1102</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1444</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3605,68 +3310,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>290</v>
+        <v>186</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1380</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1739</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>169</v>
+      <c r="A45" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_009.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Aleksander Mazur</t>
-  </si>
-  <si>
-    <t>Filip Jankowski</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>Antoni Kowalczyk</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
+    <t>Adam Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 9 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
+    <t>Zeszyt 60 kartek</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,46 +266,46 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Maja</t>
   </si>
   <si>
     <t>Wilk</t>
   </si>
   <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Antoni</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -334,97 +341,106 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Filip Grabowski</t>
-  </si>
-  <si>
-    <t>14.08.1975</t>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
   </si>
   <si>
     <t>Kacper Woźniak</t>
   </si>
   <si>
-    <t>14.09.1993</t>
-  </si>
-  <si>
-    <t>Mikołaj Nowak</t>
-  </si>
-  <si>
-    <t>16.10.1995</t>
-  </si>
-  <si>
-    <t>Zuzanna Sikorska</t>
-  </si>
-  <si>
-    <t>03.08.2005</t>
-  </si>
-  <si>
-    <t>Julia Olszewska</t>
-  </si>
-  <si>
-    <t>07.09.1985</t>
-  </si>
-  <si>
-    <t>Amelia Borkowska</t>
-  </si>
-  <si>
-    <t>01.05.2000</t>
-  </si>
-  <si>
-    <t>Jakub Kwiatkowski</t>
-  </si>
-  <si>
-    <t>10.07.1998</t>
+    <t>Szymon Grabowski</t>
+  </si>
+  <si>
+    <t>Wojciech Dąbrowski</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Wojciech Szymański</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Zuzanna Król</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Lena Malinowska</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Kacper Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
   </si>
   <si>
     <t>Zuzanna Borkowska</t>
   </si>
   <si>
-    <t>27.08.2002</t>
-  </si>
-  <si>
-    <t>Julia Piekarska</t>
-  </si>
-  <si>
-    <t>02.08.1976</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>23.08.1998</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>25.06.1989</t>
-  </si>
-  <si>
-    <t>Lena Kubiak</t>
-  </si>
-  <si>
-    <t>06.03.1981</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>14.04.1980</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Julia Czarnecka</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,142 +494,130 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>Karta graficzna RTX</t>
+    <t>Monitor 24" 4K</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>świętokrzyskie</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>opolskie</t>
   </si>
   <si>
     <t>luty</t>
   </si>
   <si>
-    <t>Dysk SSD 1TB</t>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -685,7 +689,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,12 +712,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -755,13 +753,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1068,7 +1065,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1179,13 +1176,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1194,19 +1191,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1215,19 +1212,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1236,19 +1233,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1257,19 +1254,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1278,19 +1275,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1299,19 +1296,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1323,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1344,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -1362,19 +1359,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
-        <v>6</v>
-      </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1383,19 +1380,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,16 +1401,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>6</v>
@@ -1429,6 +1426,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1462,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1482,7 +1485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1492,29 +1495,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,99 +1525,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.8</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2.7</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.4</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.1</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4.8</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.7</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1631,10 +1634,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1672,27 +1675,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1700,85 +1703,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>30.97</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>17.02</v>
       </c>
       <c r="C15" s="3">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>12.66</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>30.86</v>
       </c>
       <c r="C16" s="3">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>25.2</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14.33</v>
       </c>
       <c r="C17" s="3">
-        <v>29</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>23.09</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25.34</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>17.85</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>24.47</v>
       </c>
       <c r="C19" s="3">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1787,8 +1790,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1796,85 +1799,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.63</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>24.010000000000002</v>
       </c>
       <c r="C24" s="3">
-        <v>38</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28.67</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.6</v>
       </c>
       <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>18.1</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>28.34</v>
       </c>
       <c r="C26" s="3">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>18.87</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>13.41</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>23.62</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27.91</v>
       </c>
       <c r="C28" s="3">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1883,8 +1886,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1892,89 +1895,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>14.11</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5.02</v>
       </c>
       <c r="C33" s="3">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>19.14</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.35</v>
       </c>
       <c r="C34" s="3">
-        <v>36</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>28.42</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>30.72</v>
       </c>
       <c r="C35" s="3">
-        <v>23</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>8.69</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18.8</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>23.36</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26.54</v>
       </c>
       <c r="C37" s="3">
-        <v>18</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1994,10 +2005,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,108 +2028,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
@@ -2129,31 +2140,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
         <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2161,31 +2172,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2193,31 +2204,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2225,23 +2236,23 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="F16" s="3">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
       <c r="H16" s="3">
         <v>3</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2257,19 +2268,19 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
@@ -2278,10 +2289,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2289,16 +2300,16 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -2307,36 +2318,52 @@
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2347,14 +2374,30 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2367,10 +2410,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2381,216 +2424,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10844</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6222</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="7">
-        <v>12971</v>
+      <c r="B12" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3748</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6455</v>
+      <c r="B13" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11465</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9385</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3920</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6066</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11372</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11159</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8482</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2521</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7181</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14041</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C18" s="8">
+        <v>13895</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2855</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4081</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8550</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13550</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2606</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11556</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10009</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>130</v>
-      </c>
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2603,6 +2635,181 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>156</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>140</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>196</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>114</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>136</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>155</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>96</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>181</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>121</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>103</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>160</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2625,86 +2832,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>134</v>
+      <c r="A1" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2712,22 +2919,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1437</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1782</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="8">
+        <v>740</v>
+      </c>
+      <c r="E16" s="8">
+        <v>866</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2735,22 +2942,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1046</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1370</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1386</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1538</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2758,22 +2965,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1489</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1906</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1016</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1199</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2781,22 +2988,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1132</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1404</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1122</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1537</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2804,22 +3011,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="7">
-        <v>536</v>
-      </c>
-      <c r="E20" s="7">
-        <v>718</v>
+        <v>158</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1163</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1582</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2827,22 +3034,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>790</v>
-      </c>
-      <c r="E21" s="7">
-        <v>995</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1424</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1894</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2850,22 +3057,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1075</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1290</v>
+        <v>169</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1449</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1855</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2873,22 +3080,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1163</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1361</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1028</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1316</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2896,22 +3103,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="7">
-        <v>992</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1379</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1469</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1895</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2919,22 +3126,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1159</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1310</v>
+        <v>179</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1063</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1350</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2942,22 +3149,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1319</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1807</v>
+        <v>182</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1376</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1803</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2965,22 +3172,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="7">
-        <v>747</v>
-      </c>
-      <c r="E27" s="7">
-        <v>934</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1171</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2988,22 +3195,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1454</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1381</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1878</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3011,22 +3218,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1114</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1437</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D29" s="7">
-        <v>741</v>
-      </c>
-      <c r="E29" s="7">
-        <v>889</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3034,22 +3241,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1438</v>
+        <v>178</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1168</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1483</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3057,22 +3264,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1376</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1582</v>
+        <v>158</v>
+      </c>
+      <c r="D31" s="8">
+        <v>676</v>
+      </c>
+      <c r="E31" s="8">
+        <v>933</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3080,22 +3287,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1002</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1152</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1071</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1349</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3103,22 +3310,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1276</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1684</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="7">
-        <v>924</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3126,22 +3333,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1267</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1634</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1125</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1406</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3149,22 +3356,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="7">
-        <v>636</v>
-      </c>
-      <c r="E35" s="7">
-        <v>712</v>
+        <v>195</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1203</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1636</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3172,19 +3379,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="7">
-        <v>616</v>
-      </c>
-      <c r="E36" s="7">
-        <v>776</v>
+        <v>158</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1225</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1470</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>191</v>
@@ -3195,22 +3402,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1014</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1257</v>
+        <v>185</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1439</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1813</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3218,22 +3425,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1322</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1454</v>
+        <v>196</v>
+      </c>
+      <c r="D38" s="8">
+        <v>751</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1021</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3241,22 +3448,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1009</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1392</v>
+        <v>195</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1135</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1430</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3264,22 +3471,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="7">
-        <v>748</v>
-      </c>
-      <c r="E40" s="7">
-        <v>838</v>
+      <c r="D40" s="8">
+        <v>1308</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1504</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3287,22 +3494,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1102</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1444</v>
+        <v>182</v>
+      </c>
+      <c r="D41" s="8">
+        <v>956</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1080</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3310,58 +3517,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1739</v>
+        <v>173</v>
+      </c>
+      <c r="D42" s="8">
+        <v>556</v>
+      </c>
+      <c r="E42" s="8">
+        <v>723</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>130</v>
+      <c r="A45" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
